--- a/Agile_Report.xlsx
+++ b/Agile_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARYAN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qwert_form_filling\QWERTY_FORM_FILLING_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{337D1DCD-7768-47FE-B8CC-C4DD42BC9C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F3FB51-BB67-4D57-A4B4-9EEF9263BA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" activeTab="3" xr2:uid="{46FB7A0C-E203-42FD-BEBE-5A59BA5E1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="775" xr2:uid="{46FB7A0C-E203-42FD-BEBE-5A59BA5E1909}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="52" r:id="rId1"/>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="173">
   <si>
     <t>Status</t>
   </si>
@@ -846,6 +846,9 @@
   </si>
   <si>
     <t>ARYAN , PRIYANSHU</t>
+  </si>
+  <si>
+    <t>Awaz</t>
   </si>
 </sst>
 </file>
@@ -1382,6 +1385,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,9 +1414,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1724,21 +1727,21 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="82.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
         <v>101</v>
       </c>
@@ -1784,13 +1787,13 @@
         <v>46</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H2" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
         <v>101</v>
       </c>
@@ -1810,13 +1813,13 @@
         <v>49</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H3" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>102</v>
       </c>
@@ -1836,13 +1839,13 @@
         <v>46</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H4" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
         <v>102</v>
       </c>
@@ -1862,13 +1865,13 @@
         <v>113</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H5" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
         <v>103</v>
       </c>
@@ -1888,13 +1891,13 @@
         <v>50</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H6" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="46" t="s">
         <v>104</v>
       </c>
@@ -1914,13 +1917,13 @@
         <v>50</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H7" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
         <v>105</v>
       </c>
@@ -1940,13 +1943,13 @@
         <v>84</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H8" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
         <v>106</v>
       </c>
@@ -1966,13 +1969,13 @@
         <v>121</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H9" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
         <v>107</v>
       </c>
@@ -1992,13 +1995,13 @@
         <v>122</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
         <v>108</v>
       </c>
@@ -2018,13 +2021,13 @@
         <v>120</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H11" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="47"/>
@@ -2034,7 +2037,7 @@
       <c r="G12" s="46"/>
       <c r="H12" s="46"/>
     </row>
-    <row r="13" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="47"/>
@@ -2044,7 +2047,7 @@
       <c r="G13" s="46"/>
       <c r="H13" s="46"/>
     </row>
-    <row r="14" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="46"/>
       <c r="B14" s="46"/>
       <c r="C14" s="47"/>
@@ -2054,7 +2057,7 @@
       <c r="G14" s="46"/>
       <c r="H14" s="46"/>
     </row>
-    <row r="15" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="47"/>
@@ -2064,7 +2067,7 @@
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
     </row>
-    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="47"/>
@@ -2074,7 +2077,7 @@
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="14"/>
@@ -2084,7 +2087,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="14"/>
@@ -2094,7 +2097,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="14"/>
@@ -2104,7 +2107,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="14"/>
@@ -2114,7 +2117,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="14"/>
@@ -2124,7 +2127,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="14"/>
@@ -2134,7 +2137,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="14"/>
@@ -2144,7 +2147,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="14"/>
@@ -2154,7 +2157,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="14"/>
@@ -2164,7 +2167,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="14"/>
@@ -2174,7 +2177,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="14"/>
@@ -2184,7 +2187,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="14"/>
@@ -2194,7 +2197,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="14"/>
@@ -2204,7 +2207,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="14"/>
@@ -2214,7 +2217,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="14"/>
@@ -2224,7 +2227,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="14"/>
@@ -2234,7 +2237,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="14"/>
@@ -2244,7 +2247,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="14"/>
@@ -2254,7 +2257,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="14"/>
@@ -2264,7 +2267,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="14"/>
@@ -2274,7 +2277,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="14"/>
@@ -2284,7 +2287,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="14"/>
@@ -2294,7 +2297,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="14"/>
@@ -2304,7 +2307,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="14"/>
@@ -2314,7 +2317,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="14"/>
@@ -2324,7 +2327,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="14"/>
@@ -2334,7 +2337,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="14"/>
@@ -2344,7 +2347,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="14"/>
@@ -2354,7 +2357,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="14"/>
@@ -2364,7 +2367,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="14"/>
@@ -2374,7 +2377,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="14"/>
@@ -2384,7 +2387,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="14"/>
@@ -2394,7 +2397,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="14"/>
@@ -2404,7 +2407,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="14"/>
@@ -2434,25 +2437,25 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="34" customWidth="1"/>
     <col min="7" max="7" width="17" style="15" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="15"/>
+    <col min="8" max="8" width="13.28515625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2482,29 +2485,29 @@
       <c r="V1" s="43"/>
       <c r="W1" s="44"/>
     </row>
-    <row r="2" spans="1:23" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="68" t="s">
+    <row r="2" spans="1:23" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="67" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="39" t="s">
@@ -2553,15 +2556,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+    <row r="3" spans="1:23" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="72"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="45">
         <f t="shared" ref="I3:W3" si="0">SUM(I5:I781)</f>
         <v>50</v>
@@ -2623,32 +2626,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:23" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
     </row>
     <row r="5" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="51" t="s">
@@ -3289,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
         <v>109</v>
       </c>
@@ -3360,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="51"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23" t="s">
@@ -3389,7 +3392,7 @@
       <c r="V15" s="22"/>
       <c r="W15" s="22"/>
     </row>
-    <row r="16" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -3414,7 +3417,7 @@
       <c r="V16" s="22"/>
       <c r="W16" s="22"/>
     </row>
-    <row r="17" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -3439,7 +3442,7 @@
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
     </row>
-    <row r="18" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -3464,7 +3467,7 @@
       <c r="V18" s="22"/>
       <c r="W18" s="22"/>
     </row>
-    <row r="19" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="51"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -3489,7 +3492,7 @@
       <c r="V19" s="22"/>
       <c r="W19" s="22"/>
     </row>
-    <row r="20" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23" t="s">
@@ -3516,7 +3519,7 @@
       <c r="V20" s="22"/>
       <c r="W20" s="22"/>
     </row>
-    <row r="21" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23" t="s">
@@ -3543,7 +3546,7 @@
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
     </row>
-    <row r="22" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23" t="s">
@@ -3570,7 +3573,7 @@
       <c r="V22" s="22"/>
       <c r="W22" s="22"/>
     </row>
-    <row r="23" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -3595,7 +3598,7 @@
       <c r="V23" s="22"/>
       <c r="W23" s="22"/>
     </row>
-    <row r="24" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -3620,7 +3623,7 @@
       <c r="V24" s="22"/>
       <c r="W24" s="22"/>
     </row>
-    <row r="25" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -3645,7 +3648,7 @@
       <c r="V25" s="22"/>
       <c r="W25" s="22"/>
     </row>
-    <row r="26" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -3670,7 +3673,7 @@
       <c r="V26" s="22"/>
       <c r="W26" s="22"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23" t="s">
@@ -3697,7 +3700,7 @@
       <c r="V27" s="22"/>
       <c r="W27" s="22"/>
     </row>
-    <row r="28" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23" t="s">
@@ -3724,7 +3727,7 @@
       <c r="V28" s="22"/>
       <c r="W28" s="22"/>
     </row>
-    <row r="29" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23" t="s">
@@ -3751,7 +3754,7 @@
       <c r="V29" s="22"/>
       <c r="W29" s="22"/>
     </row>
-    <row r="30" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="51"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -3776,7 +3779,7 @@
       <c r="V30" s="22"/>
       <c r="W30" s="22"/>
     </row>
-    <row r="31" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -3801,7 +3804,7 @@
       <c r="V31" s="22"/>
       <c r="W31" s="22"/>
     </row>
-    <row r="32" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="51"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -3826,7 +3829,7 @@
       <c r="V32" s="22"/>
       <c r="W32" s="22"/>
     </row>
-    <row r="33" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -3851,7 +3854,7 @@
       <c r="V33" s="22"/>
       <c r="W33" s="22"/>
     </row>
-    <row r="34" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="51"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23" t="s">
@@ -3878,7 +3881,7 @@
       <c r="V34" s="22"/>
       <c r="W34" s="22"/>
     </row>
-    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="51"/>
       <c r="B35" s="21"/>
       <c r="C35" s="23" t="s">
@@ -3905,7 +3908,7 @@
       <c r="V35" s="22"/>
       <c r="W35" s="22"/>
     </row>
-    <row r="36" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="51"/>
       <c r="B36" s="21"/>
       <c r="C36" s="23" t="s">
@@ -3932,7 +3935,7 @@
       <c r="V36" s="22"/>
       <c r="W36" s="22"/>
     </row>
-    <row r="37" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="51"/>
       <c r="B37" s="21"/>
       <c r="C37" s="23"/>
@@ -3957,7 +3960,7 @@
       <c r="V37" s="22"/>
       <c r="W37" s="22"/>
     </row>
-    <row r="38" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="51"/>
       <c r="B38" s="21"/>
       <c r="C38" s="23"/>
@@ -3982,7 +3985,7 @@
       <c r="V38" s="22"/>
       <c r="W38" s="22"/>
     </row>
-    <row r="39" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
       <c r="B39" s="21"/>
       <c r="C39" s="23"/>
@@ -4007,7 +4010,7 @@
       <c r="V39" s="22"/>
       <c r="W39" s="22"/>
     </row>
-    <row r="40" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="51"/>
       <c r="B40" s="21"/>
       <c r="C40" s="23"/>
@@ -4032,7 +4035,7 @@
       <c r="V40" s="22"/>
       <c r="W40" s="22"/>
     </row>
-    <row r="41" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="51"/>
       <c r="B41" s="21"/>
       <c r="C41" s="23" t="s">
@@ -4059,7 +4062,7 @@
       <c r="V41" s="22"/>
       <c r="W41" s="22"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="51"/>
       <c r="B42" s="21"/>
       <c r="C42" s="23" t="s">
@@ -4086,7 +4089,7 @@
       <c r="V42" s="22"/>
       <c r="W42" s="22"/>
     </row>
-    <row r="43" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="51"/>
       <c r="B43" s="21"/>
       <c r="C43" s="23"/>
@@ -4111,7 +4114,7 @@
       <c r="V43" s="22"/>
       <c r="W43" s="22"/>
     </row>
-    <row r="44" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="51"/>
       <c r="B44" s="21"/>
       <c r="C44" s="23"/>
@@ -4136,7 +4139,7 @@
       <c r="V44" s="22"/>
       <c r="W44" s="22"/>
     </row>
-    <row r="45" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="51"/>
       <c r="B45" s="21"/>
       <c r="C45" s="23"/>
@@ -4161,7 +4164,7 @@
       <c r="V45" s="22"/>
       <c r="W45" s="22"/>
     </row>
-    <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="51"/>
       <c r="B46" s="21"/>
       <c r="C46" s="23" t="s">
@@ -4188,7 +4191,7 @@
       <c r="V46" s="22"/>
       <c r="W46" s="22"/>
     </row>
-    <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="51"/>
       <c r="B47" s="21"/>
       <c r="C47" s="23"/>
@@ -4213,7 +4216,7 @@
       <c r="V47" s="22"/>
       <c r="W47" s="22"/>
     </row>
-    <row r="48" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="51"/>
       <c r="B48" s="21"/>
       <c r="C48" s="23" t="s">
@@ -4240,7 +4243,7 @@
       <c r="V48" s="22"/>
       <c r="W48" s="22"/>
     </row>
-    <row r="49" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
@@ -4328,17 +4331,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>30</v>
       </c>
@@ -4355,7 +4358,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>57</v>
       </c>
@@ -4369,7 +4372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>62</v>
       </c>
@@ -4383,7 +4386,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>67</v>
       </c>
@@ -4397,7 +4400,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>69</v>
       </c>
@@ -4411,7 +4414,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>73</v>
       </c>
@@ -4426,7 +4429,7 @@
       </c>
       <c r="E6" s="64"/>
     </row>
-    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>123</v>
       </c>
@@ -4440,7 +4443,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>125</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>126</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>129</v>
       </c>
@@ -4482,7 +4485,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
         <v>134</v>
       </c>
@@ -4496,13 +4499,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="63"/>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
       <c r="D12" s="63"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="63"/>
       <c r="B13" s="63"/>
       <c r="C13" s="63"/>
@@ -4519,24 +4522,24 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="12.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="48.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="45.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="69.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="12.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="45.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="69.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>9</v>
       </c>
@@ -4552,7 +4555,7 @@
       <c r="E1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="66" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="38" t="s">
@@ -4565,7 +4568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4594,7 +4597,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4681,7 +4684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4710,7 +4713,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4739,7 +4742,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4797,7 +4800,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4826,7 +4829,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="65">
         <v>10</v>
       </c>
